--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_24_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_24_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.3544548166209371, 1.8379283176998453]</t>
+          <t>[1.362198239575331, 1.8301848947454515]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.9371582328441566, -1.6352634433100022]</t>
+          <t>[-1.9497371824080796, -1.6226844937460791]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.23944933082722653, 0.5248657588681076]</t>
+          <t>[0.23929338299766, 0.5250217066976741]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.45609224491794e-06</v>
+        <v>2.505421315079914e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>2.45609224491794e-06</v>
+        <v>2.505421315079914e-06</v>
       </c>
       <c r="W2" t="n">
         <v>6.709109109109271</v>
       </c>
       <c r="X2" t="n">
-        <v>6.14214214214229</v>
+        <v>6.094894894895042</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.276076076076252</v>
+        <v>7.3233233233235</v>
       </c>
     </row>
   </sheetData>
